--- a/Data/Lektury_szkolne_baza.xlsx
+++ b/Data/Lektury_szkolne_baza.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xbots\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xbots\OneDrive\Pulpit\Project books\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5918B935-C551-4640-B67D-FF0068A86B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EFD3260-E1AE-48B4-8F7B-2468B85BB2B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -449,8 +449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1351,7 +1351,7 @@
         <v>5</v>
       </c>
       <c r="C64" s="2">
-        <v>29.5</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2">
         <v>13</v>
@@ -1365,7 +1365,7 @@
         <v>6</v>
       </c>
       <c r="C65" s="2">
-        <v>27.5</v>
+        <v>29.5</v>
       </c>
       <c r="D65" s="2">
         <v>13</v>
